--- a/Presupuesto.xlsx
+++ b/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dapem\Desktop\Cubos\Torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D52D8-75BD-4D8D-B0B7-8656920344FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F19AAB-D960-453C-9256-4962D38BBEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>GASTO</t>
-  </si>
-  <si>
-    <t>TIPO</t>
   </si>
   <si>
     <t>CONFIRMADO</t>
@@ -741,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -893,16 +890,15 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -924,22 +920,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,17 +1348,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="62"/>
     <col min="4" max="4" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="98.36328125" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.36328125" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1382,21 +1377,21 @@
         <v>17</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="26"/>
@@ -1404,22 +1399,22 @@
         <f t="shared" ref="E2:E6" si="0">C2*D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>23</v>
+      <c r="F2" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="26"/>
@@ -1428,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
@@ -1451,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="65"/>
+        <v>51</v>
+      </c>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
@@ -1472,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
@@ -1495,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
@@ -1518,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
@@ -1541,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="31"/>
@@ -1564,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="66"/>
+        <v>51</v>
+      </c>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="31"/>
@@ -1585,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="66"/>
+        <v>51</v>
+      </c>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="31"/>
@@ -1606,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="66"/>
+        <v>51</v>
+      </c>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
@@ -1627,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="67"/>
+        <v>51</v>
+      </c>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
@@ -1648,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="68"/>
+        <v>51</v>
+      </c>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="75" t="s">
         <v>43</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -1669,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="65"/>
+        <v>51</v>
+      </c>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
@@ -1690,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="65"/>
+        <v>51</v>
+      </c>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
@@ -1711,12 +1706,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="65"/>
+        <v>51</v>
+      </c>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
@@ -1728,12 +1723,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="67"/>
+        <v>51</v>
+      </c>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
@@ -1748,7 +1743,7 @@
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="69"/>
+      <c r="H18" s="68"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H17">
@@ -1777,21 +1772,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="46">
         <v>170</v>
@@ -1807,7 +1802,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="50">
         <v>223</v>
@@ -1823,7 +1818,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="50">
         <v>280</v>
@@ -1839,7 +1834,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="53">
         <v>220</v>
